--- a/examples/javascript/android/NFC/NfcUnlockPrototype/NfcUnlockPrototype/Design/NfcDB.xlsx
+++ b/examples/javascript/android/NFC/NfcUnlockPrototype/NfcUnlockPrototype/Design/NfcDB.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>User</t>
-  </si>
-  <si>
-    <t>IsCard as bool</t>
   </si>
 </sst>
 </file>
@@ -358,23 +355,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
